--- a/t_func.xlsx
+++ b/t_func.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project1\Client\excel\tower_20250124\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project1\Client\excel\tower_20250124\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945FAEDB-CE3C-47A3-846F-4F92E7FA6254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCC9271-EC76-49C1-BCF3-6228BB00C0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -945,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2096,7 +2085,7 @@
         <v>80</v>
       </c>
       <c r="D52" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -2148,8 +2137,8 @@
       <c r="C56" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E56" s="1">
-        <v>5000</v>
+      <c r="D56" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
